--- a/practice/Crawl/ltn_world.xlsx
+++ b/practice/Crawl/ltn_world.xlsx
@@ -386,21 +386,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>自己的認同自己報！ 台裔人士籲美國人口普查填「台灣人」</t>
+          <t>不放過！中國基督徒傳教被捕 酷刑致失明獲釋後仍遭通緝</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2019-08-07 18:30</t>
+          <t>2019-08-08 11:33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">民眾拿著標語喊出活動口號「自己的認同自己報」。（台美公民協會授權）
-〔影音新聞／綜合報導〕美國在2020年4月起，將舉行十年一度的人口普查，美國政府會根據統計結果決定未來十年政府資源分配和政策，歷來人口普查中，有一個問題是調查填寫者的「種族」，但是選項中並沒有「台灣人」，對許多台裔人士造成困擾，美國非營利組織台美公民協會（TACL）呼籲所有來自台灣的人，或是父母來自台灣、與台灣有家族淵源的人，在調查種族的選項中勾選「其他亞洲人」，並在空格填下Taiwanese（台灣人）。
-根據美國人口普查局2010年的統計，約21萬5千人在種族該題寫自己是台灣人，但台美公民協會認為這個數字遠低於台裔美國人的實際人數，事實上，就算不具美國公民身份，只要在美國生活，就可以參與人口普查，台美公民協會相信台裔統計人數的增加，將有望讓美國政府更重視台裔族群，進而影響對台裔族群的決策。
-台美公民協會呼籲台裔民眾在種族項目寫下自己是「台灣人」。（台美公民協會授權）
-台美公民協會呼籲台裔民眾在種族項目寫下自己是「台灣人」。（台美公民協會授權）
+          <t xml:space="preserve">中國迫害宗教自由及人權，一名基督徒7年前因傳福音被捕入獄，除遭酷刑虐待導致左眼失明，獲釋後仍遭警察通緝，被迫逃亡，至今有家歸不得。（示意圖）
+〔即時新聞／綜合報導〕中國迫害宗教自由及人權，一名年輕基督徒7年前因信神傳福音被捕入獄，除遭酷刑虐待導致左眼失明，獲釋後，仍遭警察通緝，被迫逃亡，至今有家歸不得。
+長期關注人權及宗教自由的網路雜誌《寒冬》今刊文指出，一名「全能神教會」教徒7年前在傳福音時遭捕，該教會為中國最大的新興基督教宗教團體，因發展迅速，於1995年被中共列入「邪教」名單，該教會的基督徒一旦被關進監獄，就成了獄警「特別嚴管」的對象。
+男子表示，2012年12月19日，他傳福音時被抓至派出所，進了審訊室後，兩名警察將他固定在椅子上，邊踹他邊逼問他教會消息，更恐嚇他說：「這屋裡所有的刑具都是對待死刑犯的，皮帶不知打斷多少條，把你知道的都說出來，不說就打死你！打死白死！」
+報導指稱，該男子被押到牢房後，警方暗示其他犯人折磨他；第二天，一名犯人故意找碴，藉機朝他左眼打了一拳，血水順著他的臉頰流下來，他表示，牢房裡雖有監視器，卻沒人理會，並放縱犯人對他施暴。
+到了第5天，警方才帶他到醫院檢查，醫生說他左眼已經瞎了，如果不及時治療右眼也會失明，要求他在醫院醫治，遭到獄警拒絕。他被強行帶回看守所後，被強迫在夜裡站崗，並嘲諷說：「現在你的眼睛比以前『好看』多了，趕緊幹活，不能白吃白住。」後來，警察看他眼睛情況惡化，實在不能幹活了，才將他釋放。出獄時，獄警更警告他說：「不許跟任何人說在這裡發生的事。」
+他說，中共仍對他糾纏不休，到2013年6月，警察仍兩次上門騷擾，盤問他是否信神，並威脅再信神就要把他抓走，一年後，警察再次闖入他家欲逮捕他，他表示，幸好當時他們一家人提早逃脫，但也被迫害踏上逃亡路，後來，他才得知警察已下通緝令，並且經常到他家盯梢盤查，至今都不能回家。
 </t>
         </is>
       </c>
@@ -408,23 +410,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>哥本哈根稅務局辦公室外傳爆炸 玻璃門窗震碎、部分焦黑變形</t>
+          <t>猛打基督教原因曝光 這條誡文妨礙習近平「封神野心」</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2019-08-07 18:19</t>
+          <t>2019-08-08 11:10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">丹麥警方週三（7日）表示，該國稅務局哥本哈本辦公室週二（6日）晚間遇襲爆炸。（法新社）
-〔即時新聞／綜合報導〕丹麥警方週三（7日）表示，該國稅務局哥本哈本辦公室外，週二（6日）晚間遇襲爆炸，據稱1人受到輕傷，相關責任歸屬仍待釐清。
-根據目前釋出的照片顯示，爆炸威力十分驚人，一整排玻璃門窗不僅被震碎，包括疑似門框等部分裝置還焦黑變形、雜物四散，駭人不已。
-《路透》報導，稅務部長博德斯科夫（Morten Bodskov）表示，大樓受到嚴重損害，這是令人髮指、完全無法接受的行徑。
-報導指出，首席督察羅珍（Jorgen Bergen Skov）懷疑可能是有人故意這麼做，並稱警方高度重視這起案件，已進行廣泛、全面的調查，「我們不能也不會接受這種攻擊」。
-報導提到，爆炸案的發生，導致市中心北邊的北港（Nordhavn）區域列車暫停行駛，今天上午警方也關閉周圍街道，並告知工作人員遠離現場，
-現場照片清楚可見，建築物毀損嚴重。（法新社）
+          <t xml:space="preserve">中國國家主席習近平「封神野心」昭然若揭。（美聯社）
+〔即時新聞／綜合報導〕中國國家主席習近平在獲得終身任期後，打壓宗教力道陡然加劇，外媒披露，中國政府現將矛頭指向基度教的「十誡」，其背後原因是十誡中首條「禁止崇拜耶和華以外的神」的規定，已對習近平「封神野心」構成嚴重威脅。
+長期披露中國人權問題的《寒冬》雜誌今天刊文指出，中國政府迫害基督教已有數十年歷史，但最近卻擴大動作，針對各地教會的「十誡條文」實施進一步打壓。據悉，當局這波行動完全是衝著十誡首條誡文而來，原因是誡文已嚴重妨礙習近平乃至整個中共政權的成神野心。
+報導指出，河南省洛陽市某教堂日前發生十誡中第一條誡文遭當地政府強制拆除的事件，此事隨後引發海外媒體廣泛關注，並引發國際社會熱議，政府內部人員透露，這波意料外的關注讓當地政府慌了手腳，只得恢復教堂內懸掛十誡，然當局顯然不會就此罷手，後續料將有進一步打壓作為。
+《寒冬》分析，這次事件讓習近平領導下的中國政府「封神野心」徹底曝光，與美國國務卿龐皮歐（Mike Pompeo）在公布美國國務院2018年國際宗教自由報告時的發言不謀而合，龐皮歐當時斷言，中國共產黨成立以來，對一切宗教信仰均表達極端的敵意，「（因為）中共要求（民眾）把它獨尊為神」。
 </t>
         </is>
       </c>
@@ -432,21 +432,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>反送中》澳洲港生連儂牆被毀 校方：不縱容妨礙自由行為</t>
+          <t>一芳風波擴大！中國網友抵制CoCo、50嵐等台灣飲料店</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019-08-07 17:05</t>
+          <t>2019-08-08 11:05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">昆士蘭大學5日發生「反送中」連儂牆遭惡意毀壞的事件。圖為上月28日香港學生團體在布里斯本（Brisbane ，昆士蘭大學所在地）發起反送中遊行，並聲援日前遭中國學生動粗的港生。（擷取自Hong Kong Free Press HKFP臉書粉絲專頁）
-〔即時新聞／綜合報導〕澳洲昆士蘭大學校內日前曾發生中國留學生對反送中港生動粗的事件，近日來該校內再有港生設置之連儂牆被毀的情形。昆士蘭大學發言人表示，不會縱容任何妨礙言論自由的行為，若涉案者與學校有關，將會採取適當行動。
-綜合外媒報導，昆士蘭大學的香港留學生2日在校內設置「連儂牆」（Lennon Wall），表達對於香港反送中運動及言論自由的重視，吸引逾百名學生貼便條紙留言。
-不過，連儂牆卻在5日晚間遭到惡意破壞。監視器畫面顯示，有4名蒙面者闖入昆士蘭大學學生會大樓，隨後連儂牆上所有內容就被撕去，並棄置於垃圾桶。
-針對破壞事件，昆士蘭大學發言人表示，校方不會縱容任何妨礙言論自由的行為，包含破壞連儂牆。同時強調學生會已經將監視器畫面交由警方處理，若日後確認涉案者身份與學校有關，校方將會採取「適當行動」。
+          <t xml:space="preserve">中國網友開始對其他台灣飲料店進行「獵巫」，挑出飲料店疑似台獨、港獨言論並加以抵制。（圖翻攝自微博）
+〔即時新聞／綜合報導〕知名手搖飲料店一芳水果茶「一芳兩制」風波持續延燒，除了台灣民眾對一芳感到不滿，如今中國網友開始對其他台灣飲料店進行「獵巫」，挑出飲料店疑似台獨、港獨言論並加以抵制。
+中國微博這幾天熱傳所謂台獨港獨飲料店的「黑名單」，包括一芳、CoCo、貢茶、一點點（50嵐）、鮮芋仙、85度C都名列其中，中國網友翻出一芳店家貼出「與香港人同行」告示的照片，以及CoCo都可灣仔店寫有「香港人加油」的結帳明細，連一點點店家牆面上寫著一點點（中國）、50嵐（台灣）在中國網友眼中也有問題。
+中國網友在微博嗆聲，「這個CoCo都可在大陸開了幾百家奶茶店，掙大陸的錢，在香港的店在小票上印香港人加油！吃著爹的飯，砸著爹的鍋，這是什麼行為」、「越早暴露越好，比如我今天本來還準備去買一杯的，現在可以省下來了」，也有中國網友認為這是加盟店的主張，不該要總部埋單。
 </t>
         </is>
       </c>
@@ -454,21 +453,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>對中國「秀肌肉」 美國航母雷根號航行南海</t>
+          <t>躲颱風！美國「全球鷹」無人機移師日本橫田基地</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019-08-07 16:53</t>
+          <t>2019-08-08 09:58</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">美軍核動力航母「雷根號」昨日訪問馬尼拉，途中穿越南海爭議水域，重申航行自由。（路透）
-〔即時新聞／綜合報導〕美中貿易戰如火如荼之際，美軍核動力航母「雷根號」昨（6日）在前往菲律賓馬尼拉訪問的途中，航行穿越有爭議性的南海區域，航母指揮官美海軍少將托瑪斯（Karl Thomas）表示，美軍幫助穩定區域安全、促進對話，「雷根號的座右銘是力量帶來和平」。
-根據《美聯社》報導，航母「雷根號」載有約70架FA-18戰機、偵察機和直升機；美軍亦邀請菲律賓軍方將領、官員及記者登艦，參觀戰機著陸與起飛過程，展現美軍實力。
-海軍少將托瑪斯（Karl Thomas）向媒體表示，美國軍隊的存在有助於南海局勢穩定，讓各個聲索國通過外交對話解決爭議，他亦表示，《聯合國海洋法公約》是十分完善的國際法，認為各方都應該遵守。
-這不是雷根號第一次的南海任務，6月上旬以雷根號為代表的美軍與日本海上自衛隊「出雲號」聯合在南海展開聯合訓練，嚇阻中國南海「野心」的意味濃厚。
+          <t xml:space="preserve">美國RQ-4全球鷹無人偵察機。（資料照）
+〔即時新聞／綜合報導〕每年8月是颱風生成旺季，按氣候平均數來看，短短一個月內平均有5至6個颱風生成，為避開極端天氣，美軍原部署在關島的RQ-4「全球鷹」無人機，5日起已轉移至日本東京都橫田基地。
+根據美國《星條旗報》報導，美國空軍第374空運聯隊上週五（2日）發布聲明指出，關島北部安德森空軍基地的「全球鷹」無人機，5日起陸續轉移部署至日本東京都橫田基地。以避開西太平洋在颱風旺盛發展期間產生的極端劇烈天氣。
+該份聲明中並未公布移師橫田基地的「全球鷹」無人機數量，也未提及確切時間，不過按日本「北關東防衛局」的數據，本次將有4架全球鷹無人機與約80名相關人員前往橫田，與2017年共5架全球鷹、105名人員相比，數量略有減少。
+去年西太平洋共有29個颱風生成，其中「鯉魚」、「瑪莉亞」、「燕子」、「山竹」、「潭美」、「康芮」、「玉兔」等7個颱風最終增強為強烈颱風，對整個西太平洋國家或地區造成的財產損失約為120億美元（約新台幣3770億元）。
 </t>
         </is>
       </c>
@@ -476,23 +475,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>惑眾！擬2年內剷光家庭教會 傳中共正加強各地取締行動</t>
+          <t>稱「香港內亂」 美國提升香港旅遊警示至二級</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019-08-07 16:49</t>
+          <t>2019-08-08 07:01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔即時新聞／綜合報導〕中共打壓宗教規模愈演愈烈！長期關注中國人權議題的《寒冬》雜誌今刊文表示，中共正在各地加強力度打壓家庭教會，「計劃兩年內徹底剷除」、「讓基督教消失！」
-《寒冬》報導，先前有媒體揭露中共打算在未來兩年內展開「清零」行動，剷除非中共管控的家庭教會，將基督教從公共領域、網路空間清除，但實際上中共正在各地加強執行。
-報導表示，4月4日，民宗局查封湖北省武漢市江岸區數碼港一處家庭教會，並沒收聖經等書籍。當天另有兩處聚會點被取締。隔日，該教會有人因發福音傳單被趕、1人被帶往派出所。4月29日，該教會傳道人帶領信徒在別處吟唱，卻被控「惑眾」抓走，審訊時還被恐嚇「對付你這種人，最好的辦法就是用磚頭拍」、「讓你生不如死」。
-報導指出，同時期，山西省運城市基督家園教會也因拒絕加入政府核准的三自教會，難逃強行取締的命運。有信徒表示，民宗局要求該教會講道人上報信徒個資、財務狀況，接受政府承認的牧師、長老主持講道，但其拒絕。未料，4月25日，官方出動切割機拆掉教會牌匾，之後又恣意換鎖、下令不准再接待聚會。
-報導提到，至於其他地區，傳出官方是採「集中取締」方式。6月16日，福建省廈門當局大規模打壓當地基督教家庭教會，據稱此次行動中，逾40家遭取締。
-報導提及，不僅如此，6月23日，警察闖入山東省鄒平市一處家庭教會，將物品「全部擄掠」，並抓捕負責人。文中引述，當天清晨6時半，統戰部部長等近50人前往該處，拉起警戒線隔離信徒在外，理由是「在這裡聚會違法」。有圍觀群眾透露，當時教會周圍還安排了便衣警趕人。
-中共打壓宗教規模愈演愈烈！長期關注中國人權議題的《寒冬》雜誌今刊文表示，中共正在各地加強力度打壓家庭教會，「計劃兩年內徹底剷除」。（圖翻攝自《寒冬》官網）
+          <t xml:space="preserve">香港反送中抗爭規模擴大，美國對香港提升旅遊警示至二級。圖為香港8月7日的一場活動。（美聯）
+〔即時新聞／綜合報導〕香港反送中抗爭進入第10週，不止已數百萬人走上街頭，並爆發數場大規模警民流血衝突，每週個週末及週日都造成商戶緊閉、警方以催淚彈武力鎮壓群眾，被形容是都市游擊戰，美國國務院在美東時間星期三下午宣布，提升對香港的旅遊警示到第二級別（Level Two）。
+《美國之音》《美國之音》 報導，旅遊警示直接就點名「香港出現內亂（civil unrest）」，呼籲美國公民在香港境內活動時需要更加謹慎。
+報導引述警示內容，「這份旅遊警示說，自從2019年6月以來，香港各地均舉行多次大規模及較小規模的政治示威活動。雖然大多數參與者都很和平，但有部分參與者變得對抗或演變成暴力衝突。事件發生的地點除了在被香港警方允許舉行遊行或集會的社區外，抗議和對抗事件已經蔓延到多個社區。這些在很短的時間或根本沒有事先宣布的情況下發生的示威活動有可能在短期內持續進行」。
+針對香港持續反送中的抗爭，逐週力擴大規模及提升緊張情勢，已經有多國對香港提升旅遊警示至「高度警戒」，包括愛爾蘭、澳洲等。
 </t>
         </is>
       </c>
@@ -500,20 +497,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>黑吃黑！ 黑幫「老二」遭敵營吊死 拷問影片曝光</t>
+          <t>罕見開會公開嗆反送中 專家：抗爭已碰到中共底線</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2019-08-07 16:35</t>
+          <t>2019-08-08 06:58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔即時新聞／綜合報導〕墨西哥黑道瓦倫西亞（Adolfo Mendoza Valencia）4日被發現被全裸吊死在公路旁，據警方調查，他生前是當地黑幫領導人之一，而在死前被脫光、遭持槍歹徒拷問的影片隨之曝光。
-綜合媒體報導，瓦倫西亞的遺體日前被吊在公路上展示，嚇壞當地民眾。據警方了解，他生前是當地黑幫領導人之一，是次於「老大」的重要人物，跟另一幫派爭奪地盤失敗，還被敵隊黑幫綁架。近日墨西哥網路上一段瓦倫西亞生前被拷問的影片曝光，片中他被脫得半裸綑綁，一群蒙面持槍人圍住，兩把步槍就直指著他，逼迫坦承自己的罪刑。
-據報導，瓦倫西亞最後被吊死在公路旁，疑似用來對其他黑幫殺雞儆猴。這場黑幫爭奪戰的犧牲者不只瓦倫西亞，他的17歲兒子上個月也被人殺害。
-近日墨西哥網路上曝光一段瓦倫西亞生前被拷問的影片，片中他被脫得半裸綑綁，一群蒙面持槍人圍住，兩把步槍就直指著他，逼迫坦承自己的罪刑。（圖擷取自youtube@RT en Español）
+          <t xml:space="preserve">港澳辦召集港區人大代表和政協委員前往深圳開會，專家認為，這代表香港抗爭已碰到中共底線。（法新社）
+〔即時新聞／綜合報導〕中國國務院港澳事務辦公室（港澳辦）以及北京政府駐香港聯絡辦公室（中聯辦）7日在深圳舉行座談會，會中對香港抗爭出現嚴厲話語，像是反修法事件「到了退無可退的地步」、「香港正面臨回歸以來最嚴峻局面」，外媒邀請學者專家對此進行分析。
+《美國之音》 邀請香港城市大學退休政治學教授鄭宇碩、香港資深媒體人紀碩鳴對此進行討論。對於中國官員稱「退無可退」，鄭宇碩稱多數港人希望維持1997至2003年間的一國兩制，由於現在政府缺乏正當性，所以採取不合作運動，中共「退無可退」是對香港的誤解。
+至於港澳辦召集港區人大代表和政協委員前往深圳開會，紀碩鳴認為，這代表中共中央政府終於走到台前，香港抗爭已碰到中共底線，在記者發布會上港澳辦發言人設下的底線是「不許任何危害國家主權安全的行為」、「不允許挑戰中央權力和香港基本法」、「不允許利用香港對內地進行滲透和破壞」。
+紀碩鳴分析，這次的深圳會議較為罕見，顯示出港府無法單獨掌控局面，中國不得不出面集聚建制派力量，他也預估，中美關係已經惡化，因此中國不會顧忌西方國家反應，未來警方可能已拘捕為主，而非驅趕。
+鄭宇碩則表示，最近港澳辦的兩次記者發布會都沒有正式提到解放軍，一方面是沒必要，抗爭人士沒有和警方正面衝突，另一方面是風險太高，若出動解放軍，金融、一國兩制都面臨失敗。
 </t>
         </is>
       </c>
@@ -521,21 +520,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>港澳辦抨擊港人玩火自焚 美議員警告︰勿重演六四</t>
+          <t>小泉進次郎閃婚 混血女主播帶球嫁</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-08-07 16:27</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔即時新聞／綜合報導〕香港「反送中」事件持續延燒，港人5日發起全港大三罷，中國國務院港澳辦6日抨擊港人「玩火自焚」；對此，美國參議員柯頓（Tom Cotton）警告北京當局「不要重演30年前的天安門大屠殺」，他也呼籲川普政府要準備好反應措施。
-根據美國之音報導指出，柯頓認為，北京的發言是以武力解決香港抗議行動的威脅恐嚇，他指出，若北京對香港實施戒嚴，或採取其他違反1984年聯合國聲明的行動，他直言「美國將被迫從根本上重新評估與中國間的關係」。
-柯頓表示，30年前的天安門廣場大屠殺事件凸顯出中共的殘暴，30年來中國也不斷竊取美國的就業機會、威脅國家安全，柯頓呼籲川普政府要準備好反應措施。柯頓提及相關做法，如停止與北京的貿易談判、制裁中國共產黨高級官員、取消中共領導層級及其家屬的美國簽證、減少中國籍留學生的赴美簽證、要求將中國官員逐出國際組織的領導地位，及修訂《香港政策法》等。
-報導指出，美國眾議院議長佩洛西（Nancy Patricia Pelosi）5日表態支持港人抗議活動，認為港人向全世界表達「自由、正義與民主的理想永遠不會被威嚇及不公義澆熄」；「反送中」事件引起美國國會兩黨的關注與支持，不過也有眾多議員擔憂北京可能會藉此發動武力鎮壓，以平息整起事件。
-美國參議員柯頓（Tom Cotton）對香港局勢表示，北京當局「不要重演30年前的天安門大屠殺」。（路透社）
+          <t xml:space="preserve">日本自民黨眾議員小泉進次郎七日宣布即將結婚的喜訊，對象是日法混血的美女主播、被稱為「最美申奧大使」的瀧川克莉絲汀，且瀧川已懷有身孕。小泉進次郎有「師奶殺手」和「吸票機」之稱，在未來首相最佳人選的民調中，經常高居第一；對於他將結束黃金單身漢生涯，而且明年就要當爸爸，進次郎的師奶粉絲們無不歡欣鼓舞。三十八歲的進次郎是前首相小泉純一郎的次子，哥哥是知名男星小泉孝太郎。進次郎二○○九年在神奈川縣首次當選眾議員而邁入政壇，成為小泉家的「政四代」，以俊俏外型深受年長女性選民支持。瀧川則是知名主播，二○一三年擔任東京申辦二○二○年夏季奧運會的引言人，被視為日本拿下東奧主辦權的重要功臣。進次郎七日帶著瀧川前往日本首相官邸，向首相安倍晉三和官房長官菅義偉報告喜訊，據稱安倍和菅義偉都吃了一驚。
+（駐日特派員林翠儀）
+日本自民黨眾議員小泉進次郎七日宣布即將結婚的喜訊。（路透）
 </t>
         </is>
       </c>
@@ -543,21 +540,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>香港法律界今二度遊行 批港府執法雙重標準</t>
+          <t>澳洲拉攏失敗 巴紐2475億債務找中國融資</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019-08-07 15:59</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">數百名香港法律界人士今（7）日發起遊行，批評香港政府對示威者的控訴淪為「政治檢控」。（法新社）
-〔即時新聞／綜合報導〕香港法律界數百名人士今（7）日再度發起遊行，批評香港律政司近日來對反送中示威者進行「政治檢控」，並呼籲成立獨立委員會調查近日風波。
-綜合香港媒體報導，香港立法會法律界議員郭榮鏗與30名香港特首選委會法律界委員，今日共同發起遊行，呼籲律政司應該依證據起訴民眾，不應該受到政治因素影響。
-香港民主黨創黨主席、資深大律師李柱銘表示，法律面前人人平等，但香港政府過去兩個月來迅速拘捕、起訴反送中示威者，卻對元朗襲擊事件中的白衣人置之不理，如此選擇性起訴有違法治精神。
-特首選委會法律界選舉委員查錫我指出，律政司司長鄭若驊有參與《逃犯條例》的修訂工作，就應該考慮到角色衝突問題，不該插手律政司對於反送中示威者的檢控。
+          <t xml:space="preserve">〔編譯劉宜庭／綜合報導〕巴布亞紐幾內亞總理馬拉普（James Marape）六日宣布，已尋求中國協助巴紐進行債務協商，對該國全部二七○億巴紐幣（約二四七五億台幣）的債務再融資，並提議中國與太平洋島國簽署自由貿易協議。分析指出，這顯示巴紐與澳洲、中國的三角關係發生重大轉變，巴紐更加靠攏中國，而此舉預料將打擊到積極抗衡中國染指南太平洋島國的澳洲。
+今年五月甫就任總理的馬拉普，七月下旬在他上任後的首次國是訪問，向澳洲總理莫里森承諾，將每年舉辦一次雙邊會議，加強巴紐與澳洲的雙邊關係。馬拉普本月初接見中國駐巴紐大使薛冰，薛冰當面邀請馬拉普訪問中國，馬拉普則提議簽訂太平洋島國與中國的自由貿易協議，並建議巴紐央行、財政部與中國人民銀行，共商巴紐債務再融資事宜。
+不過，馬拉普七日澄清，巴紐債務再融資不只是與中國的協商，政府也會與世界銀行、亞洲開發銀行或其他潛在合作對象進行討論。坐擁豐富天然氣、原油、黃金、銅礦等資源的巴布亞紐幾內亞，此前在最新財政報告坦承「現金變得緊張」，並指出部份原因是向中國提出的三億美元（約九十五億台幣）貸款被延遲。巴紐的國家債務約佔國內生產毛額（GDP）的三十二．八％，並不算高。
+法新社引述專家報導，雖然目前沒有任何跡象顯示中國會滿足巴紐的要求，但若北京基於政治考量決定「大撒幣」，中國將成為巴紐最大的單一債權國。路透分析，中國在過去十年擴大其優惠貸款系統，從幾乎是零到成為亞太地區最大的融資提供國，貸款項目從港口、機場到體育館、道路等基礎建設無所不包。
+在巴紐提出這項要求的同時，美國國防部長艾斯培（Mark Esper）甫於四日指出，中國正利用「掠奪性經濟」破壞印太地區穩定。澳洲汀肯大學（Deakin University）國際發展教授克拉克（Matthew Clarke）告訴英國《衛報》，協助太平洋島國進行債務協商的角色，傳統上是由澳洲扮演，馬拉普尋求中國協助的舉措，恐讓澳洲政府感到意外，「外界也會擔心馬拉普此舉可能引發太平洋島國的連鎖效應」，讓中國持續擴大在太平洋島國的影響力。
+巴布亞紐幾內亞前總理歐尼爾（左）今年四月率團前往北京，參加「一帶一路國際合作高峰論壇」，在北京人民大會堂與中國國家主席習近平（右）舉行會談。（路透檔案照）
 </t>
         </is>
       </c>
@@ -565,20 +563,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>噁！業績沒達標 中國惡老闆逼員工吃泥鰍、喝雞血</t>
+          <t>港律師再上街 抗議政治起訴反送中</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2019-08-07 15:31</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔即時新聞／綜合報導〕中國網友昨（6）日爆料，有公司為懲罰員工工作未達標，讓他們吃生泥鰍、喝雞血，影片曝光後，引起網友熱烈討論。
-綜合媒體報導，有網友爆料，貴州有一建材行為懲罰員工工作未達標，逼迫他們吞下一隻泥鰍還要喝下雞血，影片中可以看見， 一男子拿著裝滿泥鰍的桶子，向眾人發放活泥鰍，發放泥鰍的男子甚至大聲喊說「必須咬斷」。其他身著藍色衣服的人站成兩排，他們手上領到泥鰍後直往嘴巴送，大家面目猙獰，且不斷傳出乾嘔聲，影片曝光後，立刻引起網友熱烈討論。
-不過，建材行老闆卻回應，這個是大家自願參與，目前當地相關單位已介入調查。
-中國網友昨（6）日爆料，有公司為懲罰員工工作未達標，讓他們吃生泥鰍、喝雞血，影片曝光後，引起網友熱烈討論。（圖擷取自微博）
+          <t xml:space="preserve">〔編譯張沛元／綜合報導〕三千多名香港法律界人士七日身著黑衣走上街頭，抗議港府律政司在決定是否起訴「反送中」運動相關被告時有政治考量，要求成立獨立調查委員會，以還原事件真相。但律政司不僅未派員接見抗議人士，還態度強硬地否認有所謂政治起訴，漠視要求獨立調查的呼聲。
+這是香港法律界繼六月六日後，再度為反送中運動走上街頭；與會人士午間從終審法院遊行約半小時來到律政中心，帶隊的公民黨籍法律界功能界別立法會議員郭榮鏗要求與律政司長鄭若驊對話，誓言法界人士不會對政治起訴袖手旁觀；有「香港民主之父」之稱的大律師公會前主席李柱銘，痛斥律政司選擇性起訴，看到黑衣人就立抓立告，白衣人就視若無睹，或遲遲不起訴；大律師公會前主席、資深大律師陳景生則呼籲港府成立獨立調查委員會，尋求事件真相並安定人心。
+與會法界人士在現場等候超過一小時，但鄭若驊與律政司刑事檢控科的刑事檢控專員梁卓然，始終沒有出面。律政司稍後發表聲明回應，否認有所謂政治起訴，但對成立獨立調查委員會隻字未提。此外，郭榮鏗引述消息透露，梁卓然曾主張成立獨立委員會處理反送中個案，但遭鄭若驊推翻；律政司隨即發表聲明否認。
+參與遊行的法界人士大多西裝筆挺，但也有人自備頭盔與防毒面具等裝備，諷刺警方濫捕與不當動武。一名特意戴上防毒面具到場的陳姓執業律師表示，他在五日金鐘罷工集會上目睹警方發射催淚彈，質疑此舉是否符合用武規章；另一名戴著頭盔參與遊行的實習律師歐陽則說，不確定法界遊行是否會遭警方鎮壓或不明人士攻擊，因此戴上頭盔自保。
+有律師戴上防毒面具上街， 諷刺近日反送中抗爭期間警方使用武力過當。（歐新社）
+三千多名香港法律界人士七日身穿黑衣走上街頭，抗議港府律政司在決定是否起訴「反送中」相關案件被告時有政治考量，要求成立獨立調查委員會。（美聯社）
 </t>
         </is>
       </c>
@@ -586,22 +586,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>俄國夫妻帶幼子「路過」示威 恐因這點失去撫養權</t>
+          <t>港生買雷射筆 5便衣警控藏武器</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2019-08-07 15:31</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">俄羅斯一對年輕夫婦帶1歲兒參與反對遊行，事後竟被檢察官申請剝奪撫養權。（路透）
-〔即時新聞／綜合報導〕俄羅斯民眾為了抗議選舉制度不公，連續2週上街遊行，當局大規模逮捕數百，甚至上千名示威者，引起國際輿論撻伐。報導指出，一對年輕夫婦因疑似帶1歲兒參加遊行，被檢察官以「疏於照顧兒童」為由，要求法官剝奪撫養權。
-綜合外媒報導，莫斯科檢察官辦公室昨日（6日）在聲明中表示，這對夫婦在7月27日參加示威遊行，期間將他們的兒子交給了第3人照顧，「讓男童面臨危險並造成身心傷害」，有負作為父母的責任，故向法院申請剝奪兩人的撫養權。
-丈夫普卡索夫（Prokazov）向媒體表示，他們當天不是去參加示威遊行，僅僅是「散步時路過」，途中請妻子的表弟弗明（Sergei Fomin）幫忙帶一下小孩而已，強調絕沒有「讓自己的小孩身處危險之中」。
-人權組織表示，若夫婦因將孩子交予第3人照顧而被剝奪撫養權，那會使保姆及祖父母「非常頭疼」。兒童權益監察員布尼莫維奇（Yevgeny Bunimovich）則表示，絕不能接受政府以兒童勒索父母的政治立場。
-為抗議當局禁止反對派人士參議會選舉，導致莫斯科接連爆發數場示威抗議，7月27日警方當場逮捕了1047名示威者，8月4日的遊行又逮捕約800人。
+          <t xml:space="preserve">〔編譯劉宜庭／綜合報導〕香港浸會大學學生會會長方仲賢六日晚間赴深水埗購買十枝觀星用雷射筆後，遭五名休假警員在鴨寮街附近以涉嫌「藏有攻擊性武器」逮捕，引發輿論譁然。超過三百名學生與民眾六日深夜包圍深水埗警署，在警署外牆噴漆，焚燒垃圾桶，大聲叫囂，要求立刻釋放方仲賢；警方為了驅散示威者，出動鎮暴警察，施放催淚彈，期間並有多人被捕。
+方仲賢是在遭到便衣警察攔查時逃跑，他自稱逃跑是因為害怕，買雷射筆是為了觀星。方仲賢被捕後，因身體不適，已送往明愛醫院救治，目前仍住院觀察。浸大校長錢大康六日晚間前往探視方仲賢，證實他沒有大礙，也呼籲港府「公平處理」該起事件。反送中示威者在衝突中常以雷射筆照射警察眼睛，已導致多名員警受傷與不適。
+香港十二所大專院校的學生會六日發表聯合聲明，強烈譴責港警捏造罪名、濫捕無辜，要求立即釋放方仲賢；聲明也批評港府明顯打壓學界，試圖散播白色恐怖，揚言對政權的恐嚇會抗爭到底。
+浸大學生會內務秘書方嘉誠七日透過廣播節目，重申「雷射筆」不是武器，形容警方的無理拘捕是製造白色恐怖。此前，港警指稱方仲賢當時形跡可疑，遂上前盤查，未料方仲賢拔腿就跑，警方隨後便在他的身上搜出可作為攻擊用途的物品。方嘉誠痛斥，「警察覺得是武器便可以拘捕，那有很多東西都可以是武器」，此番說法顯然相當荒謬，根本是在製造白色恐怖。
+浸大學生會七日晚間六點在校內賽馬會廣場舉行「麋鹿成群、虎豹避之」集會，聲援方仲賢，要求警方立即釋放「無理被捕」的方仲賢。超過三千六百五十名浸大傳理學院學生及校友則透過連署聲明，批評「警察濫捕行為實在令人髮指」，呼籲校長錢大康「為方同學取回公道，為公義發聲」。
+與此同時，香港天文學界號召民眾七日晚間八時帶著「雷射筆」到尖沙咀太空館外一起觀星，歡度七夕佳節。
+香港民眾七日晚間帶著雷射筆，前往尖沙咀太空館外「觀星」，聲援因購買觀星用雷射筆被捕的學生。（美聯社）
+香港民眾七日晚間帶著雷射筆，前往尖沙咀太空館外「觀星」，聲援因購買觀星用雷射筆被捕的學生。（歐新社）
+數百名學生與民眾六日深夜包圍深水埗警署，遭警方強勢驅離。（美聯社）
+香港浸會大學學生會會長方仲賢（圖中），6日晚間在深水埗被捕。（取自網路）
+香港警方七日凌晨逮捕多名參與「包圍深水埗警署」行動的民眾。（美聯社）
+香港警方七日凌晨逮捕多名參與「包圍深水埗警署」行動的民眾。（美聯社）
 </t>
         </is>
       </c>
@@ -609,21 +615,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>反送中》港前律司長：未出手不等於不出手 解放軍不排除出動平亂</t>
+          <t>別想港獨 港澳辦再嗆「香港動亂必介入」</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2019-08-07 15:26</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">香港「反送中」運動已從反對「逃犯條例」，升級為要求港府回應民主訴求。（歐新社）
-〔即時新聞／綜合報導〕香港「反送中」運動已從反對《逃犯條例》，升級為要求港府回應民主訴求，港澳辦及中聯辦今天上午在深圳舉辦香港局勢座談會，基本法委員會副主任譚惠珠會後聲明，中央堅定支持香港警察維持法治；香港前律政司司長梁愛詩強調「中央未出手不等於不出手」，如香港特區政府遇到動亂，解放軍會應要求平息動亂。
-根據《香港01》 報導，今日上午在深圳舉辦香港局勢座談會，有約500名人大、政協等獲邀出席。港澳辦主任張曉明指出，這次座談會「非常重要，非常持殊」，北京高度關注香港當前局勢。
-在閉門會後，港區人大代表、基本法委員會副主任譚惠珠重申，中央一直堅定支持香港特首林鄭月娥，以及港警維持法治，堅定支持一國兩制。前律政司司長梁愛詩也強調現在目前香港首要任務是止暴制亂，恢復社會秩序，現在中央不出手，不代表未來不會出手，「如果香港政府遇到動亂的時候，解放軍會應要求平息動亂」。
-前世衛總幹事、全國常委陳馮富珍表示，現在香港已到非常危險的時代，「已經上演一場顔色革命」，她強調香港是中國的一部分，「中央政府不會讓顔色革命成功」。
+          <t xml:space="preserve">〔編譯管淑平／綜合報導〕中國國務院港澳事務辦公室（港澳辦）以及北京政府駐香港聯絡辦公室（中聯辦）七日針對香港情勢在深圳舉行座談會，港澳辦主任張曉明指出，香港反對修訂逃犯條例的示威規模、影響層面和暴力程度都越來越大，「香港正面臨回歸以來最嚴峻局面」，中央對此高度關注；他未表明是否動用解放軍穩定情勢，但是引用前領導人鄧小平過去談話，指若香港陷入動亂，中央一定介入。
+這場座談會有建制派領袖、總商會主席夏雅朗（Aron Harilela）、香港交易所行政總裁李小加等商界領袖，以及港區人大代表逾五百人參與。張曉明表達北京對於穩定香港當前局勢的五點精神，包括止暴止亂，不容鼓吹「港獨」等挑戰一國兩制行為，支持特首林鄭月娥政府和香港警方等。他指此事帶有明顯「顏色革命」特徵，若任由「暴」和「亂」繼續下去，不僅會毀掉香港繁榮穩定，也會毀掉「一國兩制」。中聯辦主任王志民說，反修法事件已成為「關係香港前途命運的生死戰、保衛戰」，「到了退無可退的地步」。
+這場座談會僅前五分鐘開放採訪，被外界認為旨在統一口徑，號召建制派支持港府和警方。譚耀宗、梁愛詩、葉劉淑儀等建制派與會人士轉述，張曉明沒說是否出動駐港解放軍，但是提到鄧小平在一九八四年、八七年的香港談話「很有遠見」。
+鄧小平一九八七年四月接見出席香港基本法起草委員會委員，表示九七年後香港有人罵中國、罵中共，還是會允許，「但是如果變成行動，要把香港變成一個在『民主』幌子下反對大陸的基地，那就非干預不可。干預首先是香港政府，並不一定要大陸的駐軍出動。只有發生動亂、大動亂，駐軍才會出動。」
+張曉明指「光復香港 時代革命」口號是想顛覆特區政府，警告「反中亂港」份子不要打錯算盤，若出現港府無法控制的動亂，中央依法有足夠辦法和力量迅速平亂。
+至於反對派提出的五大訴求，張指目前沒有條件成立獨立調查委員會，雙普選是「主權爭奪」，「不要指望中央會在原則問題上讓步」。消息指出，北京研判約有一千名極端暴力份子，背後有外國勢力支持，須大規模拘捕、加速起訴、嚴刑嚇阻暴力升高。
+香港多名泛民主派議員批評，張曉明的談話是對港人「文攻武鬥」，授權警方用更大武力鎮壓示威。美國聯邦參議員柯頓（Tom Cotton）六日警告北京不要動武鎮壓反送中示威，重演天安門大屠殺；參議員強生（Ron Johnson）則擔心中國在香港透過「代理人」，以某種形式倡導暴力，藉此出兵。
+中國國務院港澳事務辦公室主任張曉明二○一六年參加香港地產公司「新世界發展」共同創辦人鄭裕彤喪禮。（路透檔案照）
 </t>
         </is>
       </c>
@@ -631,22 +640,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>挺同志廣告引匈牙利執政黨抵制  可口可樂堅不退讓</t>
+          <t>報復反送中 傳福建幫買凶赴港</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2019-08-07 14:52</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">可口可樂公司日前在布達佩斯街頭設置多個支持同志的廣告，引發關注。（路透）
-〔即時新聞／綜合報導〕可口可樂公司日前在匈牙利街頭設置一連串支持同志的廣告看板，引發保守派的匈牙利執政黨呼籲抵制。對此，可口可樂公司並未退讓，更強調每個人都有「愛己所愛」的權利。
-綜合外媒報導，可口可樂公司因應匈牙利一個流行音樂節活動，在首都布達佩斯街頭設置多個廣告看板，放上男、女同志擁抱與接吻的畫面，並寫下「#LOVEISLOVE」、「Zero cukor, zero előítélet」（無加糖，無歧視）等語，表現對同志族群的支持。
-此舉引發保守派的匈牙利執政黨「青年民主聯盟」（Fidesz）不滿，呼籲民眾抵制可口可樂。但隨著匈牙利國內對同性戀接受度日益上升，這樣的呼籲或許不容易有成效。
-可口可樂公司隨後在音樂節活動上強調，「我們相信，無論異性戀者或同性戀者，都有權利依照自己想要的方式愛自己所愛的人」，藉此呼應公司的核心原則。
-根據匈牙利非政府組織「Háttér」在2018年所做的研究，有大約2/3的匈牙利人認為同性戀者應該依照他們希望的方式自由地生活，且這個比例相較於2002年的1/2有顯著提升。
+          <t xml:space="preserve">〔編譯管淑平／綜合報導〕香港「反送中」運動五日晚間在多地的示威發生暴力衝突，其中在港島北角一群「福建幫」份子持長棍攻擊示威者，反被包圍敗北，現在網路上流傳福建同鄉會以一三○○到一五○○元港幣（約五三○○至六一○○元台幣）不等報酬大舉招兵買馬，號召十日到北角復仇。
+「南華早報」和「香港蘋果日報」均報導這項傳言。南早六日報導指出，中國「微信」（WeChat）上幾個香港和中國大陸福建人的群組對話顯示，已有人動員福建省同鄉到香港為五日北角衝突報復，「至少五輛巴士載著福建人出發前往香港」，另一段在社群媒體上流傳的影片說，「我們福建人應該去（香港）反擊！」
+香港蘋果報導，微信群組流傳襲港集結令訊息，「出征對抗港獨份子」；並有以香港晉江同鄉總會和安海分會會長兩人名義發出的「緊急通知」，號召家鄉壯丁五百人，除上千港幣酬勞外，還包吃、住、玩。另有群組截圖指「數千人」已於五日出發，準備週末大反撲，但有些人已遭香港拒絕入境。
+北角居民多為福建人，五日晚間當地約廿餘名白衣人持長木棍攻擊反送中示威者，反遭眾人包圍反擊，落荒而逃，還有兩人落單遭痛毆。然而，中國網路熱傳的訊息變成「非法示威者在街頭同北角當地閩南居民爆發衝突。衝突發生後，在香港的福建幫全力反撲，保護正常街坊鄰居不被欺負！福建老鄉給力！」
+「微博」顯示，「福建幫」一夕爆紅，還登上熱搜榜亞軍，瀏覽量破三億。大批網友大讚福建人愛國團結，並熱傳多張截圖，顯示許多鄉親號召動員到北角力挺福建幫，但不久便遭網管下架。
+儘管相關傳言均未經證實，但已引起北角人心惶惶，當地六日傳言當天下午會有示威者與幫派份子要算帳，街頭報攤、銀行、超市、餐廳、粵劇劇院等紛紛提早打烊。也有商家說，收到福建幫「溫馨提示」提早關門；康健護老院職員也說，警方通知要求關窗、不要讓院友外出，但是未說明原因。另有兩所住宅大廈管理處均稱收到警局通知，十一日北角會出現「亂象」，提醒住戶注意安全，盡量避免外出。
+中國「微信」流傳有人動員福建同鄉前往北角，為上週福建人與反送中示威者衝突復仇。（取自網路）
+一群持竹棍和木棍的白衣人，五日晚間在北角攻擊穿黑衣的反送中示威者。（美聯社）
+中國「微信」流傳有人動員福建同鄉前往北角，為上週福建人與反送中示威者衝突復仇。（取自網路）
 </t>
         </is>
       </c>
@@ -654,20 +666,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>港警逮「持有武器」浸大會長  學生今晚集會︰立刻放人</t>
+          <t>中英對照讀新聞》 Russia hatches plan to become top tourist draw 俄羅斯研擬計畫 冀成觀光客首選</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-08-07 14:33</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">香港浸大學生會方姓會長方同學昨晚購買觀星用雷射筆時，突遭警察抓走，理由是他涉嫌藏有「攻擊性武器」，數千人聞訊前往包圍警署聲援，但最後被以催淚彈清場。（美聯社）
-〔即時新聞／綜合報導〕香港浸會大學學生會會長方仲賢，昨晚因身上有10枝觀星筆（雷射筆），被員警以「在公眾地方管有攻擊性武器」罪名拘捕，引發民眾不滿包圍警局抗議，警方以催淚彈清場。警稱方同學持有大量雷射筆，被盤查時還試圖逃跑，合理懷疑他涉嫌藏有攻擊性武器拘捕。浸會大學學生今日發起連署，並於今晚舉行集會要求警方立即釋放方仲賢。
-根據《立場新聞》 報導，香港浸大學生會會長方同學昨晚購買觀星用雷射筆時，突遭警察抓走，理由是他涉嫌藏有「攻擊性武器」，數千人聞訊前往包圍警署聲援，但最後被以催淚彈清場。「有組織罪案及三合會調查科總督察」周學賢稱，很多人會用「雷射槍」攻擊警方，部分警員因此受傷或不適，警察合理懷疑方同學購買大量觀星用雷射筆，「有機會」犯上述罪行，才將他逮捕。
-報導指出，浸會大學學生會今晚將舉行集會，要求警方立即釋放方仲賢。該校學生及校友發起連署，希望校長錢大康「為方同學取回公道，為公義發聲」，至少已超過3600人響應。學生們嚴厲譴責警方捏造罪名、濫殺無辜，呼籲港人一同對抗暴政。
+          <t xml:space="preserve">◎孫宇青
+With ambitious plans to become one of the world’s top 10 travel destinations, Russia is offering tours off the beaten track to attract more visitors, with the goal of doubling tourism revenues to $25 billion by 2035.
+在立下成為全球前十大旅遊勝地的宏大願景後，俄羅斯計畫推出罕見的行程，以招徠更多觀光客，目標是觀光收入到2035年翻倍至250億美元（逾7930億台幣）。
+Nearly 25 million tourists visited Russia last year, making it the world’s 16th most popular destination, according to the World Tourism Organization.
+聯合國「世界旅遊組織」統計，去年有近2500萬旅客造訪俄國，使其位居全球第16大最受歡迎觀光地。
+But the difficulty of obtaining visas, a lack of contemporary-style accommodation and transport links outside the main cities still put off many visitors.
+然而，簽證不易取得、現代化住宿設施不足，以及主要城市以外欠缺交通網絡等問題，都讓許多旅客卻步。
+Now the government has started to introduce electronic visas, which will come into force in October for stays of up to eight days in Saint Petersburg, though Russia has not yet said which countries’ citizens can apply.
+現在，俄國政府已開始引進電子簽證，10月起生效，有意在聖彼得堡停留最多8天的旅客可提出申請，惟當局尚未公布放行的國家有哪些。
+In addtion to ski and trek, tour operators are seeking to launch Arctic tours featuring reindeer herders, rides in Soviet-era tanks or a night at a palace that belonged to Peter the Great.（AFP）
+除了滑雪和縱走，旅行社業者正嘗試開辦以馴鹿放牧、乘坐蘇聯時代坦克或投宿彼得大帝皇宮為特色的北極之旅。（法新社）
+off the beaten track：慣用片語，人跡罕至；有別於平常。例句：It is sometimes inspiring to think off the beaten track.（跳脫常軌的思考有時具有啟發性。）
+put sb. off：慣用片語，讓某人打消念頭。例句：Once he sets up a goal, nothing will put him off.（一旦他確立目標，什麼都不會讓他改變主意。）
+come into force：慣用片語，生效。例句：New driving regulations will come into force this July.（駕駛新規自7月起生效。）
+羅斯聖彼得堡市的立式單槳衝浪活動。（路透檔案照）
 </t>
         </is>
       </c>
@@ -675,21 +698,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>黃金單身漢小泉進次郎 宣布娶大3歲混血女主播</t>
+          <t xml:space="preserve">川普訪岱頓會槍擊傷患 抗議者高呼拿出作為+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-08-07 13:24</t>
+          <t>2019-08-08 04:44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">小泉進次郎宣布與大他3歲的日法混血女主播瀧川克莉絲汀結婚，瀧川已懷有身孕。（路透資料照）
-〔駐日特派員林翠儀／東京7日報導〕日本「黃金單身漢」眾議員小泉進次郎，今天宣布將與大他3歲的日法混血女主播瀧川克莉絲汀結婚，瀧川已懷有身孕。
-小泉為前首相小泉純一郎的兒子，被視為是未來首相的有人選，在日本具有高人氣，也是自民眾的吸票機。現年38歲的小泉一直未傳出與女性交往消息，突然宣布將即結婚當爸爸的喜訊，引發話題。
-瀧川克莉絲汀現年41歲，曾在2013年擔任東京申辦2020年夏季奧運的引言人，被認為是日本拿下的東奧主辦權的最大功臣，2015年結束與男星小澤征悅長達5年的戀情。
-日法混血的瀧川克莉絲汀，曾因在國際奧會的講詞聲名大噪。（取自網路）
+          <t xml:space="preserve">〔中央社〕美國總統川普今天在俄亥俄州岱頓會見槍擊案受害者，但抗議者指控他以反移民和充滿種族主義色彩的言論加劇緊張對立，並高呼「拿出作為！」和「你就是原因」等口號。
+美國上週末爆出兩起大規模槍擊案，德州艾爾帕索（El Paso）槍擊案發不到13小時，岱頓（Dayton）也發生槍擊案，兩案共造成逾30人喪生。
+川普今天稍後將訪問艾爾帕索。
+川普前往岱頓邁阿密山谷醫院（Miami Valley Hospital）探訪槍擊案傷者，抗議群眾在醫院外和岱頓市中心高舉「這裡不歡迎仇恨」和「遏止恐怖攻擊」等標語。
+白宮發言人葛里向（Stephanie Grisham）在推特推文說，川普在醫院病房會見傷患，並感謝醫護人員照顧。
 </t>
         </is>
       </c>
@@ -697,23 +721,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>雷射筆=攻擊性武器？警逮大學生 港星怒：拿藤條的呢！</t>
+          <t xml:space="preserve">川普：中國正以不公平貿易交易扼殺美國+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-08-07 13:18</t>
+          <t>2019-08-08 03:52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">〔即時新聞／綜合報導〕香港浸大學生會方姓會長昨晚傳出在深水埗鴨寮街一間店買觀星用雷射筆時，突遭便衣警抓走，理由是他涉嫌藏有攻擊性武器，數千人聞訊前往包圍警署聲援，但最後被以催淚彈清場。對此，曾在港英時期作過警察的港星王喜在臉書撰文質疑港警行徑公平與否，引發網友迴響。
-王喜在文中表示，若這款觀星筆（雷射筆）屬「攻擊性武器」，那你應該將販賣的店家抓出才對，是不是？
-王喜在文中指出，不如全港搜屋，把境內持有這種觀星筆的人抓出好不好？那賣藤條的、買藤條、拿藤條的人，也要不要抓呢？
-該篇貼文至今累計逾萬人按讚、逾千人分享轉傳，「講得好」、「多謝你，少數願意出聲的藝人」、「他們想像力太豐富」、「荒謬」、「應該嚴禁售賣任何長條型或棍型的物體」、「鉛筆也有殺傷力，是否也要禁止販售」。
-部分網友則質疑，買雷射筆的用途，例如會不會被用來射警察的眼睛；另有人感嘆，「現代的警察已經不是大家所認識的了」。
-香港浸大學生會方姓會長昨晚傳出在深水埗鴨寮街一間店買觀星用雷射筆時，突遭便衣警抓走，理由是他涉嫌藏有攻擊性武器，數千人聞訊前往包圍警署聲援，但最後被以催淚彈清場。對此，曾在港英時期作過警察的港星王喜在臉書撰文質疑港警行徑公平與否，引發網友迴響。（美聯社）
-王喜在文中嗆聲，「那賣藤條的、買藤條的人，也要不要抓呢？」（圖翻攝自臉書粉專「WONG HE 王喜」）
+          <t xml:space="preserve">〔中央社〕美國總統川普今天表示，他對中國在全球市場的行為採取強硬立場，最終將使美國經濟獲益。他指出，中國正以不公平的貿易交易扼殺美國。
+美中貿易戰最近升溫，華盛頓5日將中國列為匯率操縱國，並誓言自9月1日起，再對中國剩餘3000億美元商品加徵10%關稅。
+川普在白宮告訴記者，金融市場的反應早在預期之中，但是他對美國經濟的強健體質仍然具有信心。
+川普表示：「終究而言，金融市場會揚升得比以往高許多，因為中國仰賴我們支撐，中國正以不公平的貿易交易扼殺我們。」
+白宮官員表示，他們仍然期待中國談判代表下月前來華盛頓協商，如果在貿易協議獲致進展，下月加徵關稅一事仍可避免。
+不過美中達成貿易協議的希望日益渺茫。高盛（Goldman Sachs）昨天表示，鑒於雙方都採取「更強硬的立場」，不再期待兩國能在明年11月美國總統大選前達成協議。
 </t>
         </is>
       </c>
@@ -721,20 +745,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>黑幫是政府僱傭兵 他憂中國想不擇手段鎮壓香港</t>
+          <t xml:space="preserve">今日美國報總部傳有槍手 虛驚一場+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-08-07 13:02</t>
+          <t>2019-08-08 02:36</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">香港元朗發生白衣人士群毆民眾，讓外界質疑警方是否與白衣人聯手。（路透社）
-〔即時新聞／綜合報導〕香港抗爭局面趨於複雜，警方動作愈來愈大，黑幫介入傳聞也甚囂塵上，抗爭者處境艱辛，外媒刊出香港媒體人的評論，憂心中國想要不擇手段鎮壓這場運動。
-《紐約時報》刊出香港媒體人練乙錚的評論，直指「香港黑幫成為政府僱傭兵」，他說上週一，香港澳門事務辦公室終於打破沉默，稱中國堅決支持香港政府，並稱依法懲治暴力犯罪份子是香港當局首要任務。練擔心，這意味著中國支持警方暴力執法，並譴責抗議者，儘管他們大多是和平抗議。
-評論表示，元朗事件中據傳至少有3個知名幫派介入，共12人被捕，但抗爭者卻有44人被捕。練直指中國的秘密社團長期與當權者合作，中國聯絡處近年來以商業機會誘惑香港黑幫。練乙錚痛斥，元朗事件規模和殘忍度遠超過往，一個世紀前中國黑幫加入革命，如今香港黑幫都是暴虐政府的僱傭兵。
+          <t xml:space="preserve">〔中央社〕今日美國報（USA Today）位於維吉尼亞州北部費法克斯郡的總部大樓，今天在傳出有人看見內有一名持槍男子後疏散人員，但是後來表示通報「錯誤」。
+費法克斯郡（Fairfax County）警方表示，他們「沒有找到證據，顯示有任何暴力或傷人行為」。
+警方表示，他們接獲通報後，立即派遣特種武器和戰術部隊（SWAT）至今日美國報位於首都華盛頓郊區麥連（McLean）的總部大樓。
+今日美國報屬於甘尼特報團（Gannett Co.），是美國發行量第二大的報紙。
+美國上週末爆出兩起大規模槍擊案，德州艾爾帕索（El Paso）槍擊案發不到13小時，俄亥俄州岱頓市（Dayton）也發生槍擊案，兩案共造成逾30人喪生，使許多美國人聞槍擊而色變。
 </t>
         </is>
       </c>
@@ -742,22 +768,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>我們不歡迎！川普將訪2槍擊案發生地 招來反對聲浪</t>
+          <t xml:space="preserve">美槍擊不斷 今日美國報總部也傳有持槍男子+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2019-08-07 12:55</t>
+          <t>2019-08-08 02:01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">川普將於當地時間7日走訪2槍擊案發生地，卻遭多名當地政治人物表態反對。（美聯社）
-〔即時新聞／綜合報導〕日前美國不到24小時內接連發生2起重大槍擊案，在艾爾帕索（El Paso）及岱頓（Dayton）2城市共造成31人死亡。對此，美國總統川普表示將於當地時間7日走訪2地，但遭到多名當地政治人物表態反對，希望川普別來製造分歧。
-綜合外媒報導，以拉丁裔居民、西語文化為主的艾爾帕索（El Paso），有多位官員敦促川普不要訪問該地，並認為槍手以「西語文化入侵德州」作為犯案原因，恰好呼應了川普嚴厲的反移民言論。
-在艾爾帕索長大的前眾議員歐洛克（Beto O'Rourke）指出，「這位總統協助製造仇恨，並可能因此釀成週六（3日）的悲劇。他不應該來艾爾帕索，我們不需要更多分歧，這裡沒有他容身之地。」
-岱頓市市長惠利（Nan Whaley）則說自己會去和川普會面，並告訴他「他多麼會幫倒忙，他的言論對於槍枝（問題）毫無幫助」。惠利也強調，如果市民不滿意總統即將到訪，就應該起身反對。
-位於德州美墨邊境的艾爾帕索3日驚傳重大槍擊案，造成22人死亡。相隔不到24小時，4日凌晨位於俄亥俄州的岱頓也發生槍擊案，造成9人死亡。
+          <t xml:space="preserve">〔中央社〕今日美國報（USA Today）位於維吉尼亞州北部費法克斯郡的總部大樓，今天在傳出有人看見內有一名持槍男子後，人員已疏散。
+費法克斯郡（Fairfax County）警方在推特推文表示，他們正在回應甘尼特大樓（Gannett Building）內有持槍男子的通報。
+今日美國報屬於甘尼特報團（Gannett Co.），是美國發行量第二大的報紙。
+今日美國報商業趨勢記者波米（Nathan Bomey）表示，大樓雇員已疏散，並在推特張貼雇員聚集大樓外的照片。
 </t>
         </is>
       </c>
@@ -765,20 +790,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>色情女優電影瞎編電話號碼是真的 本尊用戶接猥褻電話崩潰</t>
+          <t>開飛機也酒駕！ 美聯航2機師酒測未過被捕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2019-08-07 12:40</t>
+          <t>2019-08-08 00:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">印度女星桑妮（Sunny Leone）本來是一名色情演員，這次客串電影《Arjun Patiala》一角。（圖擷取自臉書@Sunny Leone）
-〔即時新聞／綜合報導〕印度近日上映的電影《Arjun Patiala》裡，一名性感女星的一串假號碼竟然真的有人用！這名「幸運」男子在電影上映後，每天都接到上百通以為這是該女星號碼的「猥褻」電話，讓他不堪其擾、精神衰弱。
-綜合媒體報導，印度女星桑妮（Sunny Leone）本來是一名色情片演員，這次客串電影《Arjun Patiala》一角，在情節裡給了主角一串瞎編的電話號碼，沒想到這個號碼「本尊」是27歲男子在使用，讓他天天接到上百通電話，內容通常都十分猥褻，讓他非常困擾，向電影公司提出抗議。
-這名男子向警方控訴，他剛開始會耐心和這些人解釋，但因為大量的猥褻電話而精神衰弱，如果電影製作公司沒有採取任何補救行動就要告上法庭，女星桑妮得知後也親自致電道歉。
+          <t xml:space="preserve">美國聯合航空3日有兩名機師登機前沒通過酒精測試，在蘇格蘭當場被禁飛逮捕，6日1人交保1人當庭獲釋。（路透社）
+〔即時新聞／綜合報導〕美國聯合航空（United Airlines）3日一架從蘇格蘭飛往美國紐約的班機起飛前，兩名機師登機前沒通過酒測，不但當場被禁飛，隨後也遭警方逮捕，兩名飛機駕駛6日一交保、一當庭獲釋。
+綜合外媒報導，蘇格蘭法律規定，航空業從業人員的法定酒精濃度，須低於一般交通駕駛的一半。現年61歲的機長古力佛（Glendon Gulliver）在拘留3日後，6日被以違反交通安全法遭到起訴，獲法官批准交保；而現年45歲的副駕駛庫德卡（Dan Kudirka）則未被起訴，並被當庭釋放。
+對於飛行前因駕駛酒策超標導致航班取消，事發當時，機上乘客說並不知情真正原因，航空公司方面也僅聲稱是人手不足。聯航事後則特別發聲明，對酒精採零容忍政策，兩位駕駛已遭停止服役。根據報導顯示，這並非是美國聯航駕駛涉嫌酒駕的首例，2016和2017年已發生過二次飛機酒駕相關事件。
 </t>
         </is>
       </c>
@@ -786,22 +811,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>全球用戶注意！ 推特出大包 個資洩漏給廣告商</t>
+          <t>臨危不亂！ 男童搭電梯繩子勒脖險窒息 姊姊機智救下</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2019-08-07 12:25</t>
+          <t>2019-08-08 00:40</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">社群網路公司推特聲明致歉，由於網站設定問題，可能在未經用戶允許的情況下，將個資用於廣告。（法新社）
-〔即時新聞／綜合報導〕全球擁有3億多用戶的社群網路公司推特（Twitter），今日（7日）聲明表示，由於網站設定問題，可能在未經用戶允許的情況下，可能已將個資提供給廣告公司，將此用於個人化廣告。
-根據《路透》 報導，推特是最近才發現此一問題，目前仍未掌握有哪些用戶受到影響。推特表示，可能被收集的個資有三類，一是用戶的國碼，二是用戶與特定廣告互動數據，三是推斷用戶使用推特的裝置。
-推特在官網表示，「你們（用戶）信任推特會遵照自己的選擇，但是我們卻沒有辦到」，在聲明中，推特鄭重道歉並承諾不再重蹈覆轍。
-推特表示，由於網站上設定出現問題，沒有按照用戶選擇的去運作，用戶部分個資可能已提供給廣告公司，或未經用戶同意下收集數據，展現個人化廣告。
-用戶「大數據」資料庫非常具有商業價值，可以針對用戶個人的喜好投放商業廣告，提升流量，但收集用戶個資也侵犯到隱私權，許多科技巨擘如Apple、Facebook、Google等都面臨到相關的指控。推特表示，問題已在昨日解決。
+          <t xml:space="preserve">〔即時新聞／綜合報導〕土耳其伊斯坦堡（Istanbul）日前有一座社區電梯驚傳孩童吊頸意外，據當天監視器畫面，當時有3個孩童進入電梯，走在最後面的男孩脖子上綁著一條長長的繩子，沒有人發現關門後繩子還露在外面；直到電梯啟動，男孩隨著繩子突然被掛到電梯門上方，而男童姐姐馬上一手托起弟弟，一手按下緊急按鈕，幸運及時救下差點勒斃的男孩。
+綜合外媒報導，這3個孩童是手足關係，2女1男在社區的花園玩耍後，準備搭乘電梯回家，排行第2的5歲弟弟，沒注意到脖子上的繩子還有好大一截在電梯外面，電梯開始下降不久，就被掛到電梯門最高處，懸吊在空中，幸好大姐眼明手快，除了馬上托起弟弟讓他能繼續呼吸，還按下緊急按鈕，電梯一停止馬上將弟弟從繩子上救下來。
+據當地媒體報導，男孩目前已無大礙且逐漸恢復中；監視畫面中其實能看到男孩姐姐年紀其實不大，她小小年紀卻能反應迅速救出弟弟的表現，在影片一曝光後被多家媒體轉發，網友也紛紛稱讚女孩的機智聰明。
+電梯啟動，男孩隨著繩子突然被掛到電梯門上方，男童姐姐除了馬上抬起他的雙腳，更按下緊急按鈕，成功救下差點勒斃的男孩。（圖取自推特）
 </t>
         </is>
       </c>
@@ -809,20 +832,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>分離「連體雙胞女兒」只能救一個... 父親面臨最心碎抉擇</t>
+          <t>「仇女、極端」美國接連3起槍擊案元兇有共通點</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019-08-07 12:24</t>
+          <t>2019-08-08 00:27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">父親伊布拉希馬（Ibrahima Ndiaye）帶著3歲的雙胞胎連體女兒馬里姆（Marieme）和恩迪耶（Ndeye）到英國求醫。（圖擷取自推特@leralpointnet）
-〔即時新聞／綜合報導〕塞內加爾一名父親將面臨人生重大抉擇，他準備讓「連體雙胞胎女兒」做分離手術，若不儘快進行手術，兩人都會死亡，但手術必須要「犧牲其中一個女兒的生命」，這讓他陷入兩難之中。
-綜合媒體報導，這名父親伊布拉希馬（Ibrahima Ndiaye）帶著3歲的雙胞胎連體女兒馬里姆（Marieme）和恩迪耶（Ndeye）到英國求醫，2個女兒個性截然不同，但都是他的心肝寶貝，她們共用肝臟、膀胱、消化系統和3個腎臟，大腦、心臟和肺部是分開的。因馬里姆患有心臟病，如果不盡快做分離手術，2人會雙雙死亡，但手術只能「選擇一個人生存」，父親必須做出讓人心碎的決定。
-伊布拉希馬表示，這是人生非常艱難的時刻，這時已經無法用大腦作思考，只能跟隨他的心。最後他決定不做分離手術，他說：「她們是一體的，平等有生存的權利」。
+          <t xml:space="preserve">德州艾爾巴索民眾舉著寫著「槍擊案死者姓名」的十字架，表達對槍擊案追悼之意。 （法新社）
+〔即時新聞／綜合報導〕美國過去一周，在加州吉爾羅伊（Gilroy）大蒜美食節活動、德州艾爾巴索（El Paso）以及俄亥俄州岱頓市（Dayton）接連發生的3起槍擊案，造成重大傷亡，各界無不痛心，警方指出，3起事件的3名槍手有2項「共通點」，曾經明確表達對女性的厭惡以及擁有極端主義偏見。
+綜合外媒報導，美國總統川普對「接連3起殘忍槍擊案」表示，槍手是「心靈扭曲」的怪物，並譴責種族主義偏見。
+《今日美國報》（USA Today）指出，美國接連發生的3起重大槍擊案，引發外界對種族歧視、仇外主義及白人主義關注，但涉及仇恨女性的問題，卻較少受到討論。
+報導指出，加州19歲槍手勒根（Santino William Legan），曾在社群媒體推崇19世紀著作「強權就是公理」（Might Is Right）一書，內容為仇恨女性、種族歧視言論。
+德州21歲嫌犯克魯修斯（Patrick Crusius）則是在行凶前發文表示，美國正遭到「種族混血」的破壞。對此，專家指出，種族主義與仇恨女性密切相關。
+俄亥俄州24歲嫌犯拜茲（Connor Betts）的高中同學指出，拜茲當時面臨停學處分，是因製作「暗殺名單」與「強暴名單」，引發恐慌。
+專門研究仇恨團體的資深分析師漢克斯（Keegan Hankes）表示，許多人都是先提出反女性的言論，而後演變成追求白人主義，漢克斯指出，「仇女傾向」可說是開出極端思想主義的「入門道路」。
 </t>
         </is>
       </c>
